--- a/data/output/FV2410_FV2404/UTILMD/55142.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55142.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11430" uniqueCount="753">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11451" uniqueCount="753">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2439,6 +2439,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U487" totalsRowShown="0">
+  <autoFilter ref="A1:U487"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2728,7 +2758,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U487"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -26736,5 +26769,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55142.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55142.xlsx
@@ -4301,7 +4301,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6843,7 +6843,7 @@
         <v>692</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -7009,7 +7009,7 @@
         <v>693</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -7229,7 +7229,7 @@
         <v>695</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -7433,7 +7433,7 @@
         <v>697</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -7637,7 +7637,7 @@
         <v>699</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -7841,7 +7841,7 @@
         <v>701</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -8045,7 +8045,7 @@
         <v>703</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -8249,7 +8249,7 @@
         <v>704</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -8845,7 +8845,7 @@
         <v>706</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -9057,7 +9057,7 @@
         <v>706</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -9331,7 +9331,7 @@
         <v>708</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -9551,7 +9551,7 @@
         <v>706</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -9767,7 +9767,7 @@
         <v>709</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -9915,7 +9915,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -10541,7 +10541,7 @@
         <v>710</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -11103,7 +11103,7 @@
         <v>706</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -11251,7 +11251,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -11409,7 +11409,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -11569,7 +11569,7 @@
         <v>706</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -12005,7 +12005,7 @@
         <v>706</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -12313,7 +12313,7 @@
         <v>706</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -12729,7 +12729,7 @@
         <v>712</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -12943,7 +12943,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -13297,7 +13297,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -13711,7 +13711,7 @@
         <v>715</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -14075,7 +14075,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -14295,7 +14295,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -14729,7 +14729,7 @@
         <v>717</v>
       </c>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -14945,7 +14945,7 @@
         <v>718</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -15249,7 +15249,7 @@
         <v>718</v>
       </c>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -15561,7 +15561,7 @@
         <v>719</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -15863,7 +15863,7 @@
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -16329,7 +16329,7 @@
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -16489,7 +16489,7 @@
         <v>720</v>
       </c>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -16705,7 +16705,7 @@
         <v>721</v>
       </c>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -16917,7 +16917,7 @@
         <v>722</v>
       </c>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -17067,7 +17067,7 @@
         <v>723</v>
       </c>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -17287,7 +17287,7 @@
         <v>724</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -17589,7 +17589,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -17735,7 +17735,7 @@
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -18331,7 +18331,7 @@
         <v>724</v>
       </c>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -18479,7 +18479,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -18633,7 +18633,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -18889,7 +18889,7 @@
         <v>724</v>
       </c>
       <c r="L282" s="4"/>
-      <c r="M282" s="2" t="s">
+      <c r="M282" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N282" s="2" t="s">
@@ -19293,7 +19293,7 @@
         <v>728</v>
       </c>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -19601,7 +19601,7 @@
         <v>729</v>
       </c>
       <c r="L296" s="4"/>
-      <c r="M296" s="2" t="s">
+      <c r="M296" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N296" s="2" t="s">
@@ -19863,7 +19863,7 @@
         <v>731</v>
       </c>
       <c r="L301" s="4"/>
-      <c r="M301" s="2" t="s">
+      <c r="M301" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N301" s="2" t="s">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -20167,7 +20167,7 @@
         <v>732</v>
       </c>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -20469,7 +20469,7 @@
       </c>
       <c r="K313" s="2"/>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -20725,7 +20725,7 @@
         <v>733</v>
       </c>
       <c r="L318" s="4"/>
-      <c r="M318" s="2" t="s">
+      <c r="M318" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N318" s="2" t="s">
@@ -20873,7 +20873,7 @@
       </c>
       <c r="K321" s="2"/>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -21037,7 +21037,7 @@
         <v>734</v>
       </c>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -21203,7 +21203,7 @@
         <v>735</v>
       </c>
       <c r="L327" s="4"/>
-      <c r="M327" s="2" t="s">
+      <c r="M327" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N327" s="2" t="s">
@@ -21369,7 +21369,7 @@
         <v>736</v>
       </c>
       <c r="L330" s="4"/>
-      <c r="M330" s="2" t="s">
+      <c r="M330" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N330" s="2" t="s">
@@ -21535,7 +21535,7 @@
         <v>737</v>
       </c>
       <c r="L333" s="4"/>
-      <c r="M333" s="2" t="s">
+      <c r="M333" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N333" s="2" t="s">
@@ -21697,7 +21697,7 @@
         <v>738</v>
       </c>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -21955,7 +21955,7 @@
         <v>739</v>
       </c>
       <c r="L341" s="4"/>
-      <c r="M341" s="2" t="s">
+      <c r="M341" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N341" s="2" t="s">
@@ -22213,7 +22213,7 @@
         <v>740</v>
       </c>
       <c r="L346" s="4"/>
-      <c r="M346" s="2" t="s">
+      <c r="M346" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N346" s="2" t="s">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="4"/>
-      <c r="M351" s="2" t="s">
+      <c r="M351" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N351" s="2" t="s">
@@ -22725,7 +22725,7 @@
         <v>741</v>
       </c>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -22995,7 +22995,7 @@
         <v>720</v>
       </c>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -23211,7 +23211,7 @@
         <v>721</v>
       </c>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -23427,7 +23427,7 @@
         <v>742</v>
       </c>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -23751,7 +23751,7 @@
         <v>740</v>
       </c>
       <c r="L375" s="4"/>
-      <c r="M375" s="2" t="s">
+      <c r="M375" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N375" s="2" t="s">
@@ -24021,7 +24021,7 @@
         <v>743</v>
       </c>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N380" s="2" t="s">
@@ -24183,7 +24183,7 @@
         <v>744</v>
       </c>
       <c r="L383" s="4"/>
-      <c r="M383" s="2" t="s">
+      <c r="M383" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N383" s="2" t="s">
@@ -24345,7 +24345,7 @@
         <v>745</v>
       </c>
       <c r="L386" s="4"/>
-      <c r="M386" s="2" t="s">
+      <c r="M386" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N386" s="2" t="s">
@@ -24611,7 +24611,7 @@
         <v>746</v>
       </c>
       <c r="L391" s="4"/>
-      <c r="M391" s="2" t="s">
+      <c r="M391" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N391" s="2" t="s">
@@ -24915,7 +24915,7 @@
         <v>747</v>
       </c>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -25063,7 +25063,7 @@
       </c>
       <c r="K400" s="2"/>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -25221,7 +25221,7 @@
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="4"/>
-      <c r="M403" s="2" t="s">
+      <c r="M403" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N403" s="2" t="s">
@@ -25367,7 +25367,7 @@
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="4"/>
-      <c r="M406" s="2" t="s">
+      <c r="M406" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N406" s="2" t="s">
@@ -25689,7 +25689,7 @@
         <v>748</v>
       </c>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N412" s="2" t="s">
@@ -25837,7 +25837,7 @@
       </c>
       <c r="K415" s="2"/>
       <c r="L415" s="4"/>
-      <c r="M415" s="2" t="s">
+      <c r="M415" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N415" s="2" t="s">
@@ -26001,7 +26001,7 @@
         <v>749</v>
       </c>
       <c r="L418" s="4"/>
-      <c r="M418" s="2" t="s">
+      <c r="M418" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N418" s="2" t="s">
@@ -26159,7 +26159,7 @@
         <v>706</v>
       </c>
       <c r="L421" s="4"/>
-      <c r="M421" s="2" t="s">
+      <c r="M421" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N421" s="2" t="s">
@@ -26307,7 +26307,7 @@
       </c>
       <c r="K424" s="2"/>
       <c r="L424" s="4"/>
-      <c r="M424" s="2" t="s">
+      <c r="M424" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N424" s="2" t="s">
@@ -26743,7 +26743,7 @@
       </c>
       <c r="K432" s="2"/>
       <c r="L432" s="4"/>
-      <c r="M432" s="2" t="s">
+      <c r="M432" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N432" s="2" t="s">
@@ -26899,7 +26899,7 @@
         <v>750</v>
       </c>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N435" s="2" t="s">
@@ -27213,7 +27213,7 @@
       </c>
       <c r="K441" s="2"/>
       <c r="L441" s="4"/>
-      <c r="M441" s="2" t="s">
+      <c r="M441" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N441" s="2" t="s">
@@ -27373,7 +27373,7 @@
         <v>750</v>
       </c>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -27907,7 +27907,7 @@
       </c>
       <c r="K454" s="2"/>
       <c r="L454" s="4"/>
-      <c r="M454" s="2" t="s">
+      <c r="M454" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N454" s="2" t="s">
@@ -28067,7 +28067,7 @@
         <v>750</v>
       </c>
       <c r="L457" s="4"/>
-      <c r="M457" s="2" t="s">
+      <c r="M457" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N457" s="2" t="s">
@@ -28599,7 +28599,7 @@
         <v>750</v>
       </c>
       <c r="L467" s="4"/>
-      <c r="M467" s="2" t="s">
+      <c r="M467" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N467" s="2" t="s">
@@ -29131,7 +29131,7 @@
         <v>752</v>
       </c>
       <c r="L477" s="4"/>
-      <c r="M477" s="2" t="s">
+      <c r="M477" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N477" s="2" t="s">
@@ -29551,7 +29551,7 @@
       </c>
       <c r="K485" s="2"/>
       <c r="L485" s="4"/>
-      <c r="M485" s="2" t="s">
+      <c r="M485" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N485" s="2"/>
